--- a/052c doc/dcp_model_version/dcp0cov9xdcp0_feasparisty.xlsx
+++ b/052c doc/dcp_model_version/dcp0cov9xdcp0_feasparisty.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\dcp_model_version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\dcp_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4CDFA1-88E7-402C-AC4B-86D2F7173A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA97CEF9-BF1F-4E89-B484-0DF21661DBEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -940,16 +940,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>470535</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1240,60 +1240,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.55575927814443704</v>
       </c>
+      <c r="B1">
+        <v>0.4</v>
+      </c>
+      <c r="C1">
+        <f>A1-B1</f>
+        <v>0.15575927814443702</v>
+      </c>
+      <c r="D1">
+        <f>1-A1</f>
+        <v>0.44424072185556296</v>
+      </c>
+      <c r="E1">
+        <f>C1/D1</f>
+        <v>0.35061909114013956</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.47787154434372298</v>
       </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C9" si="0">A2-B2</f>
+        <v>0.22787154434372298</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D9" si="1">1-A2</f>
+        <v>0.52212845565627708</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E9" si="2">C2/D2</f>
+        <v>0.43642812774359369</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.40012349912531803</v>
       </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.20012349912531802</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0.59987650087468203</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="2"/>
+        <v>0.33360783233468427</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.26319670094712999</v>
       </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.11319670094713</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.73680329905287001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.15363218526931088</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.65071455009100199</v>
       </c>
+      <c r="B5">
+        <v>0.52</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.13071455009100197</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.34928544990899801</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.3742341690014801</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.52965250929901697</v>
       </c>
+      <c r="B6">
+        <v>0.42</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.10965250929901699</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.47034749070098303</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.23313084786653421</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.35799249518483101</v>
       </c>
+      <c r="B7">
+        <v>0.35</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7.9924951848310277E-3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.64200750481516899</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>1.2449223918545985E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.90837395651107899</v>
       </c>
+      <c r="B8">
+        <v>0.95</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-4.1626043488920961E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>9.1626043488921005E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-0.45430362268075219</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.93159857041410399</v>
       </c>
+      <c r="B9">
+        <v>0.92</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.1598570414103948E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>6.8401429585896012E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.16956619889850238</v>
+      </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.74822371139030197</v>
       </c>
